--- a/BalanceSheet/WDAY_bal.xlsx
+++ b/BalanceSheet/WDAY_bal.xlsx
@@ -1634,19 +1634,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>5837000.0</v>
+        <v>76000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>3762000.0</v>
+        <v>55000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>9307000.0</v>
+        <v>58000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-22382000.0</v>
+        <v>35000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>15805000.0</v>
+        <v>58000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>35581000.0</v>
